--- a/data/134/DEUSTATIS/Volume index of stock of orders.xlsx
+++ b/data/134/DEUSTATIS/Volume index of stock of orders.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DEU" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,47 +12,6 @@
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
-  <si>
-    <t>Year, quarter</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Building construction</t>
-  </si>
-  <si>
-    <t>Civil engineering</t>
-  </si>
-  <si>
-    <t>Dwelling</t>
-  </si>
-  <si>
-    <t>excluding dwellings</t>
-  </si>
-  <si>
-    <t>Roads</t>
-  </si>
-  <si>
-    <t>excluding roads</t>
-  </si>
-  <si>
-    <t>III</t>
-  </si>
-  <si>
-    <t>II</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>IV</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -78,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -90,6 +49,48 @@
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
@@ -399,7 +400,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -407,534 +408,623 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Year, quarter</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Building construction</t>
+        </is>
       </c>
       <c r="E1" s="1" t="n"/>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Civil engineering</t>
+        </is>
       </c>
       <c r="G1" s="1" t="n"/>
     </row>
-    <row r="2" spans="1:7">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+    <row r="2">
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>Year, quarter</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>Dwelling</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>excluding dwellings</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>Roads</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>excluding roads</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>IV</t>
+        </is>
       </c>
       <c r="C4" t="n">
+        <v>162.5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>178.1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>153.7</v>
+      </c>
+      <c r="F4" t="n">
+        <v>164.6</v>
+      </c>
+      <c r="G4" t="n">
+        <v>162.3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>III</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>165.8</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>181.2</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E5" t="n">
         <v>151.4</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F5" t="n">
         <v>184.2</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G5" t="n">
         <v>163.8</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1" t="n"/>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="n">
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>II</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
         <v>169.2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>183.5</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E6" t="n">
         <v>152</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F6" t="n">
         <v>185.3</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G6" t="n">
         <v>172.1</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1" t="n"/>
-      <c r="B6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="n">
+    <row r="7">
+      <c r="A7" s="1" t="n"/>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
         <v>170.3</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>186.3</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E7" t="n">
         <v>155.1</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F7" t="n">
         <v>177.7</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G7" t="n">
         <v>174.4</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1" t="n">
+    <row r="8">
+      <c r="A8" s="1" t="n">
         <v>2020</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="n">
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>IV</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
         <v>157.2</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>172.4</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E8" t="n">
         <v>147.1</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F8" t="n">
         <v>157.9</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G8" t="n">
         <v>159.6</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1" t="n"/>
-      <c r="B8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" t="n">
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>III</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
         <v>163.7</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>171</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E9" t="n">
         <v>153.8</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F9" t="n">
         <v>175.9</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G9" t="n">
         <v>164.3</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1" t="n"/>
-      <c r="B9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" t="n">
+    <row r="10">
+      <c r="A10" s="1" t="n"/>
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t>II</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
         <v>166.4</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>168.4</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E10" t="n">
         <v>155.5</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F10" t="n">
         <v>185</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G10" t="n">
         <v>167.7</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1" t="n"/>
-      <c r="B10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="n">
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
         <v>163.3</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D11" t="n">
         <v>174</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E11" t="n">
         <v>158.8</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F11" t="n">
         <v>163.9</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G11" t="n">
         <v>161.9</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1" t="n">
+    <row r="12">
+      <c r="A12" s="1" t="n">
         <v>2019</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" t="n">
+      <c r="B12" s="1" t="inlineStr">
+        <is>
+          <t>IV</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
         <v>150.7</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D12" t="n">
         <v>165.9</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E12" t="n">
         <v>147.6</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F12" t="n">
         <v>146</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G12" t="n">
         <v>148</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="1" t="n"/>
-      <c r="B12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="n">
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="1" t="inlineStr">
+        <is>
+          <t>III</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
         <v>155.1</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D13" t="n">
         <v>168.6</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E13" t="n">
         <v>147.5</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F13" t="n">
         <v>167.7</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G13" t="n">
         <v>149.7</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" t="n">
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="1" t="inlineStr">
+        <is>
+          <t>II</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
         <v>159.2</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D14" t="n">
         <v>170.8</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E14" t="n">
         <v>148.4</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F14" t="n">
         <v>182.4</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G14" t="n">
         <v>152.9</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="1" t="n"/>
-      <c r="B14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" t="n">
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="1" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
         <v>155.3</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D15" t="n">
         <v>166.9</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E15" t="n">
         <v>144.9</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F15" t="n">
         <v>169.9</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G15" t="n">
         <v>153.1</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="1" t="n">
+    <row r="16">
+      <c r="A16" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" t="n">
+      <c r="B16" s="1" t="inlineStr">
+        <is>
+          <t>IV</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
         <v>138.5</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D16" t="n">
         <v>154.1</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E16" t="n">
         <v>132</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F16" t="n">
         <v>143.7</v>
-      </c>
-      <c r="G15" t="n">
-        <v>134.2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="1" t="n"/>
-      <c r="B16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" t="n">
-        <v>143.5</v>
-      </c>
-      <c r="D16" t="n">
-        <v>149.1</v>
-      </c>
-      <c r="E16" t="n">
-        <v>138.4</v>
-      </c>
-      <c r="F16" t="n">
-        <v>167</v>
       </c>
       <c r="G16" t="n">
         <v>134.2</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17">
       <c r="A17" s="1" t="n"/>
-      <c r="B17" s="1" t="s">
-        <v>9</v>
+      <c r="B17" s="1" t="inlineStr">
+        <is>
+          <t>III</t>
+        </is>
       </c>
       <c r="C17" t="n">
+        <v>143.5</v>
+      </c>
+      <c r="D17" t="n">
+        <v>149.1</v>
+      </c>
+      <c r="E17" t="n">
+        <v>138.4</v>
+      </c>
+      <c r="F17" t="n">
+        <v>167</v>
+      </c>
+      <c r="G17" t="n">
+        <v>134.2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>II</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
         <v>147.6</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D18" t="n">
         <v>150.7</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E18" t="n">
         <v>139.4</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F18" t="n">
         <v>181.8</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G18" t="n">
         <v>137.8</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="1" t="n"/>
-      <c r="B18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" t="n">
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
         <v>143</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D19" t="n">
         <v>144.2</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E19" t="n">
         <v>137.6</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F19" t="n">
         <v>169.3</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G19" t="n">
         <v>135.1</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="1" t="n">
+    <row r="20">
+      <c r="A20" s="1" t="n">
         <v>2017</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" t="n">
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>IV</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
         <v>128.6</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D20" t="n">
         <v>135</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E20" t="n">
         <v>130.7</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F20" t="n">
         <v>138.7</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G20" t="n">
         <v>117.6</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="1" t="n"/>
-      <c r="B20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" t="n">
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>III</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
         <v>133.1</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D21" t="n">
         <v>134.7</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E21" t="n">
         <v>132.7</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F21" t="n">
         <v>152.8</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G21" t="n">
         <v>122.9</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" t="n">
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>II</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
         <v>137.1</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D22" t="n">
         <v>145</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E22" t="n">
         <v>134.3</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F22" t="n">
         <v>159.4</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G22" t="n">
         <v>124.6</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="1" t="n"/>
-      <c r="B22" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" t="n">
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
         <v>131.8</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D23" t="n">
         <v>140</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E23" t="n">
         <v>128.5</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F23" t="n">
         <v>146.6</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G23" t="n">
         <v>123.3</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="1" t="n">
+    <row r="24">
+      <c r="A24" s="1" t="n">
         <v>2016</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" t="n">
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>IV</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
         <v>114.7</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D24" t="n">
         <v>123.4</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E24" t="n">
         <v>115.8</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F24" t="n">
         <v>116</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G24" t="n">
         <v>108.1</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="1" t="n"/>
-      <c r="B24" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" t="n">
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>III</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
         <v>121.9</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D25" t="n">
         <v>133.6</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E25" t="n">
         <v>116.6</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F25" t="n">
         <v>138.2</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G25" t="n">
         <v>113.1</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" t="n">
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>II</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
         <v>120.7</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D26" t="n">
         <v>123.3</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E26" t="n">
         <v>116.9</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F26" t="n">
         <v>136.3</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G26" t="n">
         <v>115.4</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26" t="n">
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
         <v>109.3</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D27" t="n">
         <v>112.7</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E27" t="n">
         <v>103.2</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F27" t="n">
         <v>119.1</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G27" t="n">
         <v>109.3</v>
       </c>
     </row>
@@ -942,12 +1032,12 @@
   <mergeCells count="8">
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A24:A27"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
